--- a/XFP Files/Testing & Verification/XFP Tools test sheet 8.1.xlsx
+++ b/XFP Files/Testing & Verification/XFP Tools test sheet 8.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom.Cunliffe.C-TEC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamie.bartleet\Documents\Dev\XFP\XFP Files\Testing &amp; Verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B52D513-FBDF-4BFF-B253-16FED450868A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE48370-5C38-4A62-A656-2B32D368E1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B80E1B04-61FF-4A29-A188-203A4F7FD4D4}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{B80E1B04-61FF-4A29-A188-203A4F7FD4D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Function under test</t>
   </si>
@@ -83,6 +83,126 @@
     <t>The image at the top shows how it looks after a download from the panel
 The bottom image is how I think it should look,
 I could be wrong this may need to be confirmed by a 3rd party</t>
+  </si>
+  <si>
+    <t>Device details, loop 1-2 mismatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device details and the loop tabs do not update eachother with device information, such as zone,groups or modes. If there is a mismatch on a device it will not function as was intended. For example if I have a device in group 2 on device details and havent changed it in loop 1 it will still be what it was orignally in the loop 1 tab, this then causes issues with the sounder groups as when i try to set the panel to only sound group 2 sounders it will instead set off all the sounders on the loop. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receiveing panel cause and effects </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cause and effects are not being retreived from the panel correctly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Tools is receving the C&amp;E correctly </t>
+  </si>
+  <si>
+    <t>Panel Type</t>
+  </si>
+  <si>
+    <t>Sending a config from the tools to a 32 Zone panel causes the progress box to say it is sending loops 2 and loops 3, rather than loops 1 and 2 simmilar issue to one on the 16 Zone XFP</t>
+  </si>
+  <si>
+    <t>Send a config with 2 loops to a 32 zone panel to see the pop up box</t>
+  </si>
+  <si>
+    <t>16,32</t>
+  </si>
+  <si>
+    <t>16 Zone</t>
+  </si>
+  <si>
+    <t>16, 32</t>
+  </si>
+  <si>
+    <t>The progress box when sending a System config to the panel is showing that it is sending Loop-2 devices instead of loop-1 device, I believe this is a naming error more than an actual fault. However, on my 1 loop panel the tools still send loop-2 devices. if possible could this be hidden or removed? 
+Same issue with 32 zone 2 loop however the pop up box says its sending loops 2 and 3 instead.</t>
+  </si>
+  <si>
+    <t>Sending System to a 32 Zone, 2 Loop Panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See images for more information on fault
+On the 32 Zone XFP the tools receive the correct cause and effects,when it has no loop data to retreive. When it has loop data the cause and effects do not transfer correctly
+</t>
+  </si>
+  <si>
+    <t>Saving System config</t>
+  </si>
+  <si>
+    <t>Presave check will pop up if there are issues with the config, along with the data validation box. Saves as .xfp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer 1 </t>
+  </si>
+  <si>
+    <t>Customer 2</t>
+  </si>
+  <si>
+    <t>Customer 3</t>
+  </si>
+  <si>
+    <t>Customer 4</t>
+  </si>
+  <si>
+    <t>Customer 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loading System Config </t>
+  </si>
+  <si>
+    <t>Loads correctly with the same data that was saved previously.</t>
+  </si>
+  <si>
+    <t>Tested customer 4's issues and could not repeat it with tools version 8.1.1, the tools will open in whatever protocol was last used, in my case that was cast. The tools swapped from cast to apollo when the apollo box is ticked.</t>
+  </si>
+  <si>
+    <t>Tested Customer 5's issue and could not replicate the fault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested customer 3's issue and could not repeat the issue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested customer 2's issue and could not be repeated </t>
+  </si>
+  <si>
+    <t>Tested customer 1's isssue and could not repeat the issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer related fault </t>
+  </si>
+  <si>
+    <t>I only had 1 issue when testing customer faults which was when I sent a config to the tools and then that same config back to the panel the panel had faults after the sending. Group 12 sounders had faults but this went away almost immediately, the next fault was loop 1 device 65 device missing (25) this too went away after 2-3 minutes after this i could not recreate this. TESTED ON APOLLO to match the customer faults.</t>
+  </si>
+  <si>
+    <t>Apollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downloading Apollo config from panel to the tools </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannnot recreate </t>
+  </si>
+  <si>
+    <t>32 Zone 2 loop</t>
+  </si>
+  <si>
+    <t>Apollo 1 loop</t>
+  </si>
+  <si>
+    <t>The tools do not correctly receive sounder groups on apollo and has them all as blank.</t>
+  </si>
+  <si>
+    <t>16 Zone, Apollo, CAST</t>
+  </si>
+  <si>
+    <t>Apollo, CAST</t>
+  </si>
+  <si>
+    <t>16 Zone Apollo, CAST</t>
   </si>
   <si>
     <r>
@@ -93,7 +213,7 @@
         <b/>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -102,63 +222,15 @@
     </r>
   </si>
   <si>
-    <t>Device details, loop 1-2 mismatch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device details and the loop tabs do not update eachother with device information, such as zone,groups or modes. If there is a mismatch on a device it will not function as was intended. For example if I have a device in group 2 on device details and havent changed it in loop 1 it will still be what it was orignally in the loop 1 tab, this then causes issues with the sounder groups as when i try to set the panel to only sound group 2 sounders it will instead set off all the sounders on the loop. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receiveing panel cause and effects </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cause and effects are not being retreived from the panel correctly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old Tools is receving the C&amp;E correctly </t>
-  </si>
-  <si>
-    <t>Panel Type</t>
-  </si>
-  <si>
-    <t>Sending System to a 32 Zone Panel</t>
-  </si>
-  <si>
-    <t>Sending a config from the tools to a 32 Zone panel causes the progress box to say it is sending loops 2 and loops 3, rather than loops 1 and 2 simmilar issue to one on the 16 Zone XFP</t>
-  </si>
-  <si>
-    <t>Send a config with 2 loops to a 32 zone panel to see the pop up box</t>
-  </si>
-  <si>
-    <t>16,32</t>
-  </si>
-  <si>
-    <t>16 Zone</t>
-  </si>
-  <si>
-    <t>16, 32</t>
-  </si>
-  <si>
-    <t>This fault is replicatable and is much easier to explain with it in progress, come see tom if neccesary.
+    <t>This fault is replicable and is much easier to explain with it in progress, come see tom if neccesary.
 Cannot recreate anymore but the fault still exists in 8.1.1</t>
-  </si>
-  <si>
-    <t>32 Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See images for more information on fault
-On the 32 Zone XFP the tools receive the correct cause and effects,when it has no loop data to retreive. When it has loop data the cause and effects do not transfer correctly
-</t>
-  </si>
-  <si>
-    <t>The progress box when sending a System config to the panel is showing that it is sending Loop-2 devices instead of loop-1 device, I believe this is a naming error more than an actual fault. However, on my 1 loop panel the tools still send loop-2 devices. if possible could this be hidden or removed? 
-Same issue with 32 zone 2 loop however the pop up box says its sending loops 2 and 3 instead.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,10 +247,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -228,44 +307,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -291,11 +518,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
+      <xdr:rowOff>398401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6029326</xdr:colOff>
+      <xdr:colOff>5400135</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>628686</xdr:rowOff>
     </xdr:to>
@@ -320,8 +547,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13525500" y="2847975"/>
-          <a:ext cx="6010276" cy="257211"/>
+          <a:off x="8093375" y="2391103"/>
+          <a:ext cx="5381085" cy="230285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -333,13 +560,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>87591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6038849</xdr:colOff>
+      <xdr:colOff>5374257</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>332441</xdr:rowOff>
     </xdr:to>
@@ -370,8 +597,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13535024" y="2533650"/>
-          <a:ext cx="6010275" cy="275291"/>
+          <a:off x="8102900" y="2080293"/>
+          <a:ext cx="5345682" cy="244850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -383,15 +610,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>232804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7897326</xdr:colOff>
+      <xdr:colOff>5426015</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>743054</xdr:rowOff>
+      <xdr:rowOff>743053</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -414,8 +641,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13515975" y="6858000"/>
-          <a:ext cx="7887801" cy="743054"/>
+          <a:off x="8083851" y="8203612"/>
+          <a:ext cx="5416489" cy="510249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -427,15 +654,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3009900</xdr:colOff>
+      <xdr:colOff>1776324</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>733425</xdr:rowOff>
+      <xdr:rowOff>819509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6029325</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:colOff>5454225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1502795</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -458,8 +685,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13496925" y="7591425"/>
-          <a:ext cx="6038850" cy="771526"/>
+          <a:off x="8073607" y="8790317"/>
+          <a:ext cx="5454942" cy="683286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -788,278 +1015,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463CB580-7255-41C0-A5A1-1D32F53FAB5F}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" customWidth="1"/>
-    <col min="6" max="6" width="118.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="79.25" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" s="12" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" s="12" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="131.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="44.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="131.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XFP Files/Testing & Verification/XFP Tools test sheet 8.1.xlsx
+++ b/XFP Files/Testing & Verification/XFP Tools test sheet 8.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamie.bartleet\Documents\Dev\XFP\XFP Files\Testing &amp; Verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE48370-5C38-4A62-A656-2B32D368E1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E854BD3-1F4E-4BDE-933B-F25F609A53C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{B80E1B04-61FF-4A29-A188-203A4F7FD4D4}"/>
   </bookViews>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/XFP Files/Testing & Verification/XFP Tools test sheet 8.1.xlsx
+++ b/XFP Files/Testing & Verification/XFP Tools test sheet 8.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamie.bartleet\Documents\Dev\XFP\XFP Files\Testing &amp; Verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E854BD3-1F4E-4BDE-933B-F25F609A53C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1686083-C561-4360-9E40-FD5B0EC8C427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{B80E1B04-61FF-4A29-A188-203A4F7FD4D4}"/>
   </bookViews>
@@ -230,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +242,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -476,22 +483,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1017,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463CB580-7255-41C0-A5A1-1D32F53FAB5F}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1095,17 +1105,17 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="1"/>
@@ -1141,19 +1151,19 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="131.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="1"/>
@@ -1221,7 +1231,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F13" s="3"/>
